--- a/flo.xlsx
+++ b/flo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\yh\INR_draw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A909E4E2-C67E-4066-9166-BE77B197014A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC9AF8B-D884-4635-9924-3C560FD96990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30435" yWindow="3285" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35880" yWindow="3780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,112 +484,80 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
-        <v>82</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9.27</v>
-      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="1">
-        <v>11.4</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8.9700000000000006</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <v>11.4</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1">
-        <v>9.1</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <v>11.4</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1">
-        <v>9.1</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <v>11.4</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1">
-        <v>9.1</v>
-      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <v>11.4</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1">
-        <v>9.1999999999999993</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <v>11.4</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1">
-        <v>9.1999999999999993</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>11.4</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1">
-        <v>9.1999999999999993</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1">
-        <v>11.4</v>
+        <v>11.9</v>
       </c>
     </row>
   </sheetData>

--- a/flo.xlsx
+++ b/flo.xlsx
@@ -427,7 +427,7 @@
         <v>13.4</v>
       </c>
       <c r="D2" t="str">
-        <v>11.9</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="3">
@@ -441,7 +441,7 @@
         <v>10.1</v>
       </c>
       <c r="D3" t="str">
-        <v>11.9</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="4">
@@ -455,7 +455,7 @@
         <v>9.3</v>
       </c>
       <c r="D4" t="str">
-        <v>11.9</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>9.1</v>
       </c>
       <c r="D5" t="str">
-        <v>11.9</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +483,7 @@
         <v>9.0</v>
       </c>
       <c r="D6" t="str">
-        <v>11.9</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         <v>9.0</v>
       </c>
       <c r="D7" t="str">
-        <v>11.9</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="8">
@@ -511,7 +511,7 @@
         <v>9.0</v>
       </c>
       <c r="D8" t="str">
-        <v>11.9</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="9">
@@ -525,7 +525,7 @@
         <v>9.1</v>
       </c>
       <c r="D9" t="str">
-        <v>11.9</v>
+        <v>10.9</v>
       </c>
     </row>
   </sheetData>
